--- a/medicine/Soins infirmiers et profession infirmière/Maria_de_Villegas_de_Saint-Pierre/Maria_de_Villegas_de_Saint-Pierre.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Maria_de_Villegas_de_Saint-Pierre/Maria_de_Villegas_de_Saint-Pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maria de Villegas de Saint-Pierre, comtesse van den Steen de Jehay par mariage, née le 14 décembre 1871 et décédée le 23 janvier 1941 est une infirmière militaire du front de la Première Guerre mondiale et une femme de lettres.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 17 mai 1892, elle épouse Léopold van den Steen, comte de Jehay. Le couple aura deux[réf. nécessaire] enfants dont Jean (1893-1945)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 mai 1892, elle épouse Léopold van den Steen, comte de Jehay. Le couple aura deux[réf. nécessaire] enfants dont Jean (1893-1945).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distinctions honorifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de l'Ordre de Léopold
 Chevalier de l'Ordre de la Légion d'honneur
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>quelques nouvelles publiées sous le pseudonyme de Quevedo.
 Profils de gosses, roman, préface d'André Lichtenberger et illustrations de Jean Droit. Éditions du Temps présent, 1912. Couronné par l'Académie française.
